--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,15 +1158,19 @@
       <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45060</v>
+      </c>
+      <c r="G5" s="8">
+        <v>70576</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>82102</v>
+        <v>-86474</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,15 +1182,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45073</v>
+      </c>
+      <c r="G6" s="8">
+        <v>49000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>133825</v>
+        <v>-34751</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,63 +1206,79 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45084</v>
+      </c>
+      <c r="G7" s="16">
+        <v>49000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>166636</v>
+        <v>-1940</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45066</v>
+      </c>
+      <c r="B8" s="16">
+        <v>54872</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>166636</v>
+        <v>52932</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45060</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="13">
+        <v>49994</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>166636</v>
+        <v>102926</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45060</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>45089</v>
+      </c>
+      <c r="B10" s="13">
+        <v>31840</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1290,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1306,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1322,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1338,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1354,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1370,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1386,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1402,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1418,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1434,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1450,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1466,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1482,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1498,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1514,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1530,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1546,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1562,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1578,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1594,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1610,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1626,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1642,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1659,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45060</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1684,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>166636</v>
+        <v>303342</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1692,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>168576</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1715,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-86474</v>
+        <v>-217831</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-34751</v>
+        <v>-166108</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-1940</v>
+        <v>-133297</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,15 +1230,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45118</v>
+      </c>
+      <c r="G8" s="16">
+        <v>50000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>52932</v>
+        <v>-78425</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,15 +1254,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45125</v>
+      </c>
+      <c r="G9" s="16">
+        <v>81357</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>102926</v>
+        <v>-28431</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1274,7 @@
         <v>45089</v>
       </c>
       <c r="B10" s="13">
-        <v>31840</v>
+        <v>42060</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1274,59 +1282,71 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>13629</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>45094</v>
+      </c>
+      <c r="B11" s="17">
+        <v>40306</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>53935</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="53">
+        <v>45098</v>
+      </c>
+      <c r="B12" s="17">
+        <v>27960</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>81895</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="53">
+        <v>45107</v>
+      </c>
+      <c r="B13" s="13">
+        <v>19835</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1358,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1374,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1390,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1406,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1422,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1438,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1454,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1470,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1486,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1502,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1518,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1534,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1550,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1566,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1582,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1598,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1614,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1630,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1646,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1662,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1659,11 +1679,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1684,7 +1704,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>303342</v>
+        <v>401663</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1692,7 +1712,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>168576</v>
+        <v>299933</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1715,7 +1735,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1346,55 +1346,67 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="53">
+        <v>45125</v>
+      </c>
+      <c r="B14" s="17">
+        <v>46872</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>148602</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="53">
+        <v>45133</v>
+      </c>
+      <c r="B15" s="17">
+        <v>12280</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>160882</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="53">
+        <v>45138</v>
+      </c>
+      <c r="B16" s="17">
+        <v>33590</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1418,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1434,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1450,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1466,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1482,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1498,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1514,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1530,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1546,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1562,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1578,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1594,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1610,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1626,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1642,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1658,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1674,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1691,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45125</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1704,7 +1716,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>401663</v>
+        <v>494405</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1735,7 +1747,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45145</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  KUMAR TOYS NEW</t>
+  </si>
+  <si>
+    <t>2*205</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1080,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1099,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1124,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>45048</v>
       </c>
@@ -1166,14 +1169,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-217831</v>
+        <v>-413091</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>45048</v>
       </c>
@@ -1190,14 +1193,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-166108</v>
+        <v>-361368</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>45052</v>
       </c>
@@ -1214,14 +1217,14 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-133297</v>
+        <v>-328557</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
         <v>45066</v>
       </c>
@@ -1238,14 +1241,14 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-78425</v>
+        <v>-273685</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53">
         <v>45085</v>
       </c>
@@ -1262,14 +1265,14 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-28431</v>
+        <v>-223691</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53">
         <v>45089</v>
       </c>
@@ -1278,18 +1281,25 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>45125</v>
+      </c>
+      <c r="G10" s="16">
+        <v>410</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>13629</v>
+        <v>-181631</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53">
         <v>45094</v>
       </c>
@@ -1298,18 +1308,22 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>45156</v>
+      </c>
+      <c r="G11" s="16">
+        <v>48000</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>53935</v>
+        <v>-141325</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53">
         <v>45098</v>
       </c>
@@ -1318,18 +1332,22 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>45156</v>
+      </c>
+      <c r="G12" s="16">
+        <v>49000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>81895</v>
+        <v>-113365</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53">
         <v>45107</v>
       </c>
@@ -1338,18 +1356,22 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>45202</v>
+      </c>
+      <c r="G13" s="13">
+        <v>49000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>101730</v>
+        <v>-93530</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53">
         <v>45125</v>
       </c>
@@ -1358,18 +1380,22 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15">
+        <v>45217</v>
+      </c>
+      <c r="G14" s="16">
+        <v>48850</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>148602</v>
+        <v>-46658</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53">
         <v>45133</v>
       </c>
@@ -1382,14 +1408,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>160882</v>
+        <v>-34378</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53">
         <v>45138</v>
       </c>
@@ -1402,91 +1428,111 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>-788</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="53">
+        <v>45163</v>
+      </c>
+      <c r="B17" s="13">
+        <v>59417</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>58629</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="53">
+        <v>45174</v>
+      </c>
+      <c r="B18" s="13">
+        <v>29328</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>87957</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="53">
+        <v>45160</v>
+      </c>
+      <c r="B19" s="13">
+        <v>32262</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>120219</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="53">
+        <v>45183</v>
+      </c>
+      <c r="B20" s="13">
+        <v>55930</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>176149</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="53">
+        <v>45194</v>
+      </c>
+      <c r="B21" s="13">
+        <v>29962</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1544,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1560,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1576,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1592,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1608,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1624,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1640,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1656,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1672,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1688,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1704,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,11 +1720,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1691,11 +1737,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45150</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1716,7 +1762,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>494405</v>
+        <v>701304</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1724,7 +1770,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>299933</v>
+        <v>495193</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1747,7 +1793,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,11 +1169,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-413091</v>
+        <v>-484958</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-361368</v>
+        <v>-433235</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-328557</v>
+        <v>-400424</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-273685</v>
+        <v>-345552</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-223691</v>
+        <v>-295558</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-181631</v>
+        <v>-253498</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-141325</v>
+        <v>-213192</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-113365</v>
+        <v>-185232</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-93530</v>
+        <v>-165397</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-46658</v>
+        <v>-118525</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,15 +1404,19 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15">
+        <v>45250</v>
+      </c>
+      <c r="G15" s="16">
+        <v>71867</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-34378</v>
+        <v>-106245</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1432,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-788</v>
+        <v>-72655</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1452,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>58629</v>
+        <v>-13238</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1472,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>87957</v>
+        <v>16090</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1492,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>120219</v>
+        <v>48352</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1512,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>176149</v>
+        <v>104282</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1532,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1548,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1564,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1580,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1596,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1612,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1644,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1660,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1676,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,11 +1692,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1704,11 +1708,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,11 +1724,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1737,11 +1741,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45225</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1770,7 +1774,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>495193</v>
+        <v>567060</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/KUMAR NEW.xlsx
+++ b/IMPORTANT/KUMAR NEW.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,11 +1169,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-484958</v>
+        <v>-700944</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>202</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-433235</v>
+        <v>-649221</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>202</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-400424</v>
+        <v>-616410</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>198</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-345552</v>
+        <v>-561538</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>184</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-295558</v>
+        <v>-511544</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>165</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-253498</v>
+        <v>-469484</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-213192</v>
+        <v>-429178</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-185232</v>
+        <v>-401218</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-165397</v>
+        <v>-381383</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-118525</v>
+        <v>-334511</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-106245</v>
+        <v>-322231</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,15 +1428,19 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15">
+        <v>45302</v>
+      </c>
+      <c r="G16" s="16">
+        <v>50000</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-72655</v>
+        <v>-288641</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,15 +1452,19 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15">
+        <v>45308</v>
+      </c>
+      <c r="G17" s="16">
+        <v>78266</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-13238</v>
+        <v>-229224</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,15 +1476,19 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="15">
+        <v>45353</v>
+      </c>
+      <c r="G18" s="16">
+        <v>52346</v>
+      </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>16090</v>
+        <v>-199896</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,15 +1500,19 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="15">
+        <v>45355</v>
+      </c>
+      <c r="G19" s="16">
+        <v>35374</v>
+      </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>48352</v>
+        <v>-167634</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1528,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>104282</v>
+        <v>-111704</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,59 +1548,71 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>-81742</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>56</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="53">
+        <v>45254</v>
+      </c>
+      <c r="B22" s="13">
+        <v>56434</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>-25308</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="53">
+        <v>45267</v>
+      </c>
+      <c r="B23" s="13">
+        <v>36939</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>11631</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="53">
+        <v>45323</v>
+      </c>
+      <c r="B24" s="13">
+        <v>57112</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1624,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1640,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1656,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1672,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1688,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1676,11 +1704,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1692,11 +1720,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1708,11 +1736,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1724,11 +1752,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1741,11 +1769,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45250</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1766,7 +1794,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>701304</v>
+        <v>851789</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1774,7 +1802,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>567060</v>
+        <v>783046</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1797,7 +1825,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
